--- a/etudiants.xlsx
+++ b/etudiants.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/PSI/organisation_psi/quizz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliendurif/Documents/prepa/PSI/psi_quiz/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Aouzal</t>
   </si>
@@ -35,348 +35,228 @@
     <t>Fatime</t>
   </si>
   <si>
-    <t>fatimeaouzal14@gmail.com</t>
-  </si>
-  <si>
     <t>Bernard</t>
   </si>
   <si>
     <t>Quentin</t>
   </si>
   <si>
-    <t>quentin.del2@hotmail.fr</t>
-  </si>
-  <si>
     <t>Bourgeon</t>
   </si>
   <si>
     <t>Titouan</t>
   </si>
   <si>
-    <t>titouan.bourgeon987@outlook.fr</t>
-  </si>
-  <si>
     <t>Châne</t>
   </si>
   <si>
     <t>Amélie</t>
   </si>
   <si>
-    <t>chane.amelie@gmail.com</t>
-  </si>
-  <si>
     <t>Chêne</t>
   </si>
   <si>
     <t>Margot</t>
   </si>
   <si>
-    <t>margot.chene@orange.fr</t>
-  </si>
-  <si>
     <t>Coché</t>
   </si>
   <si>
     <t>Benjamin</t>
   </si>
   <si>
-    <t>coche.benji@hotmail.fr</t>
-  </si>
-  <si>
     <t>Dandalet</t>
   </si>
   <si>
     <t>Annouk</t>
   </si>
   <si>
-    <t>annouk.dandalet@numericable.fr</t>
-  </si>
-  <si>
     <t>Ducret</t>
   </si>
   <si>
     <t>Victor</t>
   </si>
   <si>
-    <t>ducretvictor1@gmail.com</t>
-  </si>
-  <si>
     <t>Lasaygues</t>
   </si>
   <si>
     <t>Antoine</t>
   </si>
   <si>
-    <t>antoine.lasa@gmail.com</t>
-  </si>
-  <si>
     <t>Lefort</t>
   </si>
   <si>
     <t>Johan</t>
   </si>
   <si>
-    <t>j.lefort3677@gmail.com</t>
-  </si>
-  <si>
     <t>Levrat</t>
   </si>
   <si>
     <t>Maxime</t>
   </si>
   <si>
-    <t>mxlevrat@yahoo.com</t>
-  </si>
-  <si>
     <t>Meltz</t>
   </si>
   <si>
     <t>Alphonse</t>
   </si>
   <si>
-    <t>alphonse.meltz@orange.fr</t>
-  </si>
-  <si>
     <t>Michel</t>
   </si>
   <si>
     <t>Hugues</t>
   </si>
   <si>
-    <t>hugues5.michel@gmail.com</t>
-  </si>
-  <si>
     <t>Molle</t>
   </si>
   <si>
     <t>Mathieu</t>
   </si>
   <si>
-    <t>mathieu.molle@aol.fr</t>
-  </si>
-  <si>
     <t>Mordedeuf</t>
   </si>
   <si>
     <t>Maxence</t>
   </si>
   <si>
-    <t>maxencemordedeuf@gmail.com</t>
-  </si>
-  <si>
     <t>Pavillon</t>
   </si>
   <si>
     <t>Cléa</t>
   </si>
   <si>
-    <t>pavillonclea@gmail.com</t>
-  </si>
-  <si>
     <t>Perrin</t>
   </si>
   <si>
     <t>Paul</t>
   </si>
   <si>
-    <t>tribuperrin3@gmail.com</t>
-  </si>
-  <si>
     <t>Prudent</t>
   </si>
   <si>
     <t>Jimmy</t>
   </si>
   <si>
-    <t>jimmy.prudent@gmail.com</t>
-  </si>
-  <si>
     <t>Randu</t>
   </si>
   <si>
     <t>Guillaume</t>
   </si>
   <si>
-    <t>randuguillaume@gmail.com</t>
-  </si>
-  <si>
     <t>Ribaira</t>
   </si>
   <si>
     <t>Jessy</t>
   </si>
   <si>
-    <t>jribaira@gmail.com</t>
-  </si>
-  <si>
     <t>Rolland</t>
   </si>
   <si>
     <t>Clément</t>
   </si>
   <si>
-    <t>clement-rolland@hotmail.fr</t>
-  </si>
-  <si>
     <t>Roussel</t>
   </si>
   <si>
     <t>Lucie</t>
   </si>
   <si>
-    <t>lucie_roussel@hotmail.com</t>
-  </si>
-  <si>
     <t>Rozaire</t>
   </si>
   <si>
-    <t>paulrozaire@gmail.com</t>
-  </si>
-  <si>
     <t>Jean Paul</t>
   </si>
   <si>
-    <t>jeanpaul.nohra99@gmail.com</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
     <t>Prenom</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Aucler</t>
   </si>
   <si>
     <t>Tom</t>
   </si>
   <si>
-    <t>auclertom@gmail.com</t>
-  </si>
-  <si>
     <t>Bontemps</t>
   </si>
   <si>
     <t>Didier</t>
   </si>
   <si>
-    <t>did.bontemps@gmail.com</t>
-  </si>
-  <si>
     <t>Cariven</t>
   </si>
   <si>
     <t>Léa</t>
   </si>
   <si>
-    <t>carivenlea@gmail.com</t>
-  </si>
-  <si>
     <t>Fontbonne</t>
   </si>
   <si>
     <t>Lucas</t>
   </si>
   <si>
-    <t>lfontbonne@free.fr</t>
-  </si>
-  <si>
     <t>Antoinette</t>
   </si>
   <si>
-    <t>antoinette2459@icloud.com</t>
-  </si>
-  <si>
     <t>Thibaut</t>
   </si>
   <si>
-    <t>guery.thibaut@gmail.com</t>
-  </si>
-  <si>
     <t>Jallet</t>
   </si>
   <si>
     <t>Manon</t>
   </si>
   <si>
-    <t>m.jallet23@gmail.com</t>
-  </si>
-  <si>
     <t>Lachaize</t>
   </si>
   <si>
     <t>Jan</t>
   </si>
   <si>
-    <t>jan.lachaize@icloud.com</t>
-  </si>
-  <si>
     <t>Lebigre</t>
   </si>
   <si>
     <t>Jeanne</t>
   </si>
   <si>
-    <t>jeanne@perrin.me</t>
-  </si>
-  <si>
     <t>Magnien</t>
   </si>
   <si>
     <t>Geoffrey</t>
   </si>
   <si>
-    <t>geoffrey.magnien@gmail.com</t>
-  </si>
-  <si>
     <t>Magniere</t>
   </si>
   <si>
     <t>Alexandre</t>
   </si>
   <si>
-    <t>alexandre.magniere@orange.fr</t>
-  </si>
-  <si>
     <t>Nesme</t>
   </si>
   <si>
     <t>Clara</t>
   </si>
   <si>
-    <t>nesmeclara@gmail.com</t>
-  </si>
-  <si>
     <t>Roche</t>
   </si>
   <si>
     <t>Anthony</t>
   </si>
   <si>
-    <t>rocheanthony@live.fr</t>
-  </si>
-  <si>
     <t>Salagnac</t>
   </si>
   <si>
     <t>Leonard</t>
   </si>
   <si>
-    <t>leonard.salagnac@gmail.com</t>
-  </si>
-  <si>
     <t>Viala</t>
   </si>
   <si>
     <t>Thomas</t>
   </si>
   <si>
-    <t>toto210999@gmail.com</t>
-  </si>
-  <si>
     <t>Beun-Govart</t>
   </si>
   <si>
@@ -389,22 +269,13 @@
     <t>Charline</t>
   </si>
   <si>
-    <t>charlinemarcel10@gmail.com</t>
-  </si>
-  <si>
     <t>Triolaire</t>
   </si>
   <si>
     <t>Abel</t>
   </si>
   <si>
-    <t>photo</t>
-  </si>
-  <si>
     <t>idetudiant</t>
-  </si>
-  <si>
-    <t>abel.triolaire@gmail.com</t>
   </si>
   <si>
     <t>Youssef-Nahra</t>
@@ -742,35 +613,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -780,691 +642,445 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
